--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2592075.851628093</v>
+        <v>2673759.89416639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>221.2006630000038</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +676,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>69.82950881474474</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>125.5971178413755</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>95.88072654069454</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.363104630272991</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>13.46550985000071</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="F5" t="n">
-        <v>334.459245924942</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464216</v>
+        <v>152.6839592808844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>121.0858588020175</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>80.69052336281872</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>214.928883819682</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>282.5860313669115</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.54623367868028</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.0605760489983</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>377.2843490815197</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>189.5283462851253</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.4405054918804</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>77.80783641966748</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.0424879565123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.044504686242537</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>24.01153903325422</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>132.248113527703</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.28116933330804</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>176.8688121773846</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>131.6781577333165</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3.998128528658369</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.66714102769329</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>39.21716692389594</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>235.6169713356435</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>102.0005969012864</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.0924407648174</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>32.71539710434961</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.80265736225955</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.107731335947736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722585</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,16 +3799,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560585</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>77.67526418425049</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>170.5057467104344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>120.5908435446106</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.570184966062</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726991</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="C2" t="n">
-        <v>546.7341079359765</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="D2" t="n">
-        <v>267.7881344992538</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>1034.091197420791</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>809.3643835117316</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.3815266691013</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="C3" t="n">
-        <v>273.3815266691013</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="D3" t="n">
-        <v>273.3815266691013</v>
+        <v>395.8756276815054</v>
       </c>
       <c r="E3" t="n">
-        <v>273.3815266691013</v>
+        <v>236.6381726760499</v>
       </c>
       <c r="F3" t="n">
-        <v>273.3815266691013</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
         <v>159.4923828364511</v>
@@ -4416,13 +4418,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121333</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4431,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>806.3008579684607</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>578.0822456026084</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="V3" t="n">
-        <v>578.0822456026084</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="W3" t="n">
-        <v>481.2330268746341</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="X3" t="n">
-        <v>273.3815266691013</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="Y3" t="n">
-        <v>273.3815266691013</v>
+        <v>544.8100373427567</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="D4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>27.50979850050459</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.3019767171696</v>
+        <v>185.391191902125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.360916470109</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="C5" t="n">
-        <v>743.3983995296971</v>
+        <v>1119.196006445283</v>
       </c>
       <c r="D5" t="n">
-        <v>743.3983995296971</v>
+        <v>760.9303078385324</v>
       </c>
       <c r="E5" t="n">
-        <v>743.3983995296971</v>
+        <v>385.1327009229529</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832911</v>
+        <v>378.1872001737495</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771373</v>
+        <v>223.9609786779066</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771373</v>
+        <v>223.9609786779066</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380377</v>
+        <v>57.6439173538046</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456874</v>
+        <v>220.1747338456891</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039969</v>
+        <v>474.0852112039997</v>
       </c>
       <c r="M5" t="n">
-        <v>773.216086049415</v>
+        <v>773.2160860494189</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.55521363572</v>
+        <v>1062.555213635726</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293133</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935878</v>
+        <v>1447.523776935886</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="X5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.360916470109</v>
+        <v>1488.158523385694</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.0307271880694</v>
+        <v>666.4184890280303</v>
       </c>
       <c r="C6" t="n">
-        <v>233.5776979069424</v>
+        <v>666.4184890280303</v>
       </c>
       <c r="D6" t="n">
-        <v>111.2687496220762</v>
+        <v>666.4184890280303</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>507.1810340225749</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>360.6464760494599</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782837</v>
+        <v>52.67537262782888</v>
       </c>
       <c r="K6" t="n">
-        <v>212.7583667934827</v>
+        <v>218.4568186361421</v>
       </c>
       <c r="L6" t="n">
-        <v>212.7583667934827</v>
+        <v>479.7277836524406</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314401</v>
+        <v>848.0470181904</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693975</v>
+        <v>848.0470181904</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241717</v>
+        <v>1156.36189956272</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385686</v>
+        <v>1386.80870570669</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385686</v>
+        <v>1319.485484785563</v>
       </c>
       <c r="T6" t="n">
-        <v>1287.001448736734</v>
+        <v>1319.485484785563</v>
       </c>
       <c r="U6" t="n">
-        <v>1058.794634390299</v>
+        <v>1091.278670439128</v>
       </c>
       <c r="V6" t="n">
-        <v>823.6425261585562</v>
+        <v>1091.278670439128</v>
       </c>
       <c r="W6" t="n">
-        <v>823.6425261585562</v>
+        <v>874.1787877929842</v>
       </c>
       <c r="X6" t="n">
-        <v>615.7910259530233</v>
+        <v>874.1787877929842</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.0307271880694</v>
+        <v>666.4184890280303</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888144</v>
+        <v>32.09990175888196</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611242</v>
+        <v>90.6165479061134</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236684</v>
+        <v>162.7032697236698</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400016</v>
+        <v>238.5105468400035</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057939</v>
+        <v>292.5145415057963</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918695</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918668</v>
+        <v>85.87047721385559</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918668</v>
+        <v>85.87047721385559</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918668</v>
+        <v>85.87047721385559</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771373</v>
+        <v>85.87047721385559</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>588.5042599278199</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240415</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240415</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240415</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,43 +5032,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>623.235460983869</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>623.235460983869</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,52 +5272,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.6741500022174</v>
+        <v>416.118479144934</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.1822962170271</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324571</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324571</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324571</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1474.662190726332</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1274.742180641885</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1050.956765431391</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.836466556558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3923.023794101857</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3871.224633159121</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>4143.816373245387</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>3923.023794101857</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5968,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1254.832926985065</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1031.04751177457</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1031.04751177457</v>
+        <v>1183.882643369968</v>
       </c>
       <c r="V25" t="n">
-        <v>776.3630235686835</v>
+        <v>1183.882643369968</v>
       </c>
       <c r="W25" t="n">
-        <v>486.9458535317228</v>
+        <v>894.4654733330078</v>
       </c>
       <c r="X25" t="n">
-        <v>486.9458535317228</v>
+        <v>894.4654733330078</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>894.4654733330078</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6211,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,13 +6229,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3799.634725086986</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>3799.634725086986</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1459.302970634775</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1459.302970634775</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1235.517555424281</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985003</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086986</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y28" t="n">
-        <v>3799.634725086986</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6442,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
@@ -6546,16 +6548,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556558</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>4503.139178847511</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>4334.202995919604</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>4184.086356507269</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4757.823667053398</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>4757.823667053398</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>4757.823667053398</v>
       </c>
       <c r="U34" t="n">
-        <v>836.769640042142</v>
+        <v>4757.823667053398</v>
       </c>
       <c r="V34" t="n">
-        <v>836.769640042142</v>
+        <v>4503.139178847511</v>
       </c>
       <c r="W34" t="n">
-        <v>836.769640042142</v>
+        <v>4503.139178847511</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>4503.139178847511</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>4503.139178847511</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,10 +6928,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880509</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>3928.626224708976</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3759.690041781069</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.085404217832</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.956765431391</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>4182.464659513465</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>4182.464659513465</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>4149.418803852506</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>3928.626224708976</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.614441745106</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383382</v>
+        <v>423.3154508994212</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383382</v>
+        <v>423.3154508994212</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383382</v>
+        <v>273.1988114870854</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383382</v>
+        <v>273.1988114870854</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383382</v>
+        <v>273.1988114870854</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557904</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.13085534741</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>986.002216560968</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550813</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181208</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201036</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383382</v>
+        <v>423.3154508994212</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550599</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610187</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003437</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7448,13 +7450,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.92122461472</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3721.107993746785</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="C43" t="n">
-        <v>3721.107993746785</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D43" t="n">
-        <v>3721.107993746785</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746785</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1309.381304307354</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>1309.381304307354</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727022</v>
+        <v>1054.696816101467</v>
       </c>
       <c r="W43" t="n">
-        <v>3893.336020727022</v>
+        <v>765.2796460645059</v>
       </c>
       <c r="X43" t="n">
-        <v>3721.107993746785</v>
+        <v>537.2900951664885</v>
       </c>
       <c r="Y43" t="n">
-        <v>3721.107993746785</v>
+        <v>537.2900951664885</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,13 +7681,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590535</v>
@@ -7722,22 +7724,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>4627.970536702775</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247859</v>
+        <v>4404.18512149228</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247859</v>
+        <v>4404.18512149228</v>
       </c>
       <c r="V46" t="n">
-        <v>709.451253618899</v>
+        <v>4404.18512149228</v>
       </c>
       <c r="W46" t="n">
-        <v>709.451253618899</v>
+        <v>4114.767951455319</v>
       </c>
       <c r="X46" t="n">
-        <v>481.4617027208911</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905254</v>
+        <v>3886.778400557302</v>
       </c>
     </row>
   </sheetData>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>258.7092250502974</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503898</v>
+        <v>347.5605027480669</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835732</v>
+        <v>450.1033532835743</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470456</v>
+        <v>65.57565010062306</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247343</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="N15" t="n">
-        <v>18.73797368291349</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>398.9629823660896</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>412.6002929596431</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>398.9629823660896</v>
+        <v>145.2351313103787</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498454</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10838,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>32.78140656352411</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504506</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.391474690056924</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>89.43898467896035</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.20433314211556</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>145.5709683319698</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.95281337053858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>93.46154186133418</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>115.9656517653198</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.2688311464434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>66.2426522502868</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>282.239223869919</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>123.753906995238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>70.74718547989687</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>16.52067198818455</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.96375550250643</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>160.14491163376</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.9942582846875</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>102.690911101118</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.4769220161469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>143.8722968741388</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.2039086786026</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>77.32996643899267</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.01446838603275</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792857.7792596683</v>
+        <v>792857.7792596684</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792857.7792596683</v>
+        <v>792857.7792596684</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792857.7792596683</v>
+        <v>792857.7792596684</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792857.7792596683</v>
+        <v>792857.7792596684</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792857.7792596687</v>
+        <v>792857.7792596684</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703833</v>
+        <v>106137.1517703854</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252115</v>
+        <v>316711.9424252094</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26390,16 +26392,16 @@
         <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313402</v>
+        <v>24677.2460931345</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817156</v>
+        <v>76496.15793817109</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.200533006340265e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>295391.3642791488</v>
+        <v>295391.3642791482</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859719</v>
       </c>
       <c r="F4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859719</v>
       </c>
       <c r="G4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859719</v>
       </c>
       <c r="H4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="I4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="J4" t="n">
         <v>50690.35944859718</v>
       </c>
       <c r="K4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859723</v>
       </c>
       <c r="L4" t="n">
         <v>50690.35944859718</v>
       </c>
       <c r="M4" t="n">
-        <v>50690.35944859719</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="N4" t="n">
-        <v>50690.35944859734</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="O4" t="n">
-        <v>50690.35944859744</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="P4" t="n">
-        <v>50690.35944859742</v>
+        <v>50690.3594485972</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26472,34 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485726</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154039.0707300389</v>
+        <v>154039.070730039</v>
       </c>
       <c r="C6" t="n">
-        <v>196494.4778270373</v>
+        <v>196494.4778270362</v>
       </c>
       <c r="D6" t="n">
-        <v>56197.88947507416</v>
+        <v>56197.88947507605</v>
       </c>
       <c r="E6" t="n">
-        <v>-42191.22629387584</v>
+        <v>-42191.22629387552</v>
       </c>
       <c r="F6" t="n">
         <v>482968.8101830204</v>
       </c>
       <c r="G6" t="n">
-        <v>482968.8101830204</v>
+        <v>482968.8101830202</v>
       </c>
       <c r="H6" t="n">
-        <v>482968.8101830205</v>
+        <v>482968.8101830201</v>
       </c>
       <c r="I6" t="n">
-        <v>482968.8101830204</v>
+        <v>482968.8101830203</v>
       </c>
       <c r="J6" t="n">
         <v>410714.1153118812</v>
       </c>
       <c r="K6" t="n">
-        <v>458291.5640898863</v>
+        <v>458291.5640898859</v>
       </c>
       <c r="L6" t="n">
-        <v>406472.6522448488</v>
+        <v>406472.6522448494</v>
       </c>
       <c r="M6" t="n">
         <v>348167.7949491831</v>
       </c>
       <c r="N6" t="n">
-        <v>482968.8101830205</v>
+        <v>482968.8101830203</v>
       </c>
       <c r="O6" t="n">
-        <v>482968.8101830202</v>
+        <v>482968.8101830201</v>
       </c>
       <c r="P6" t="n">
-        <v>482968.8101830204</v>
+        <v>482968.8101830201</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593886</v>
+        <v>117.5602045593903</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464216</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026329</v>
+        <v>82.53894384026498</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576981</v>
+        <v>260.1834596576964</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406618</v>
+        <v>95.88311714406817</v>
       </c>
       <c r="D4" t="n">
-        <v>302.247641908134</v>
+        <v>302.247641908132</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27038,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406618</v>
+        <v>95.88311714406805</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908134</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406618</v>
+        <v>95.88311714406817</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908134</v>
+        <v>302.247641908132</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>160.729707072258</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>135.9823317116531</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27461,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>19.47209455200841</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27511,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>155.8142566202251</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,16 +27554,16 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>9.569146015439022</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>212.2441455390365</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225838161</v>
       </c>
       <c r="F5" t="n">
-        <v>72.41679981676947</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.7905028312888</v>
+        <v>262.1461743968259</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>120.1819171385213</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963201</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>26.35920676262121</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129686</v>
+        <v>84.45800155129663</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>36.76609934123761</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27789,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>160.3423548015529</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358483</v>
+        <v>78.3712176435846</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322671</v>
+        <v>68.41045236322645</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.7613787255179</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>3.936966969679531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>170.1634217103569</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.67326561448232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>36.49982093927531</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>53.97620323457204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>62.60929703870266</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.286383694491756e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30517,16 +30519,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30678,13 +30680,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30854,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -30864,7 +30866,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -30873,7 +30875,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30906,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -30918,7 +30920,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>9.311634130426675e-12</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246774</v>
+        <v>0.4726038374246843</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025478</v>
+        <v>4.840054050025549</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231489</v>
+        <v>18.22005944231516</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662274</v>
+        <v>40.11165994662333</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480935</v>
+        <v>60.11698038481023</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439484</v>
+        <v>74.58043007439592</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819594</v>
+        <v>82.98509856819715</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127881</v>
+        <v>84.32788422128004</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288716</v>
+        <v>79.62842981288833</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646544</v>
+        <v>67.96102257646643</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869416</v>
+        <v>51.03589764869491</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262791</v>
+        <v>29.68720080262835</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531485</v>
+        <v>10.769459945315</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326526</v>
+        <v>2.068823298326556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397418</v>
+        <v>0.03780830699397474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560433</v>
+        <v>0.2528653456560471</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941261</v>
+        <v>2.442146890941297</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596232</v>
+        <v>8.706109488596358</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182821</v>
+        <v>23.89022987182856</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078311</v>
+        <v>40.83220803078371</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483521</v>
+        <v>54.90394270483601</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486676</v>
+        <v>64.0703114848677</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270927</v>
+        <v>65.76606198271024</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106748</v>
+        <v>60.16309827106836</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349685</v>
+        <v>48.2861904349692</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128722</v>
+        <v>32.2780395612877</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134628</v>
+        <v>15.69983260134651</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707645</v>
+        <v>4.696862889707713</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359227</v>
+        <v>1.019224792359242</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368707</v>
+        <v>0.01663587800368731</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005368</v>
+        <v>0.2119938115005399</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886592</v>
+        <v>1.884817705886619</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761598</v>
+        <v>6.375232076761692</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308795</v>
+        <v>14.98796247308817</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342599</v>
+        <v>24.62982646342635</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072526</v>
+        <v>31.51769812072572</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094323</v>
+        <v>33.23099356094371</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898671</v>
+        <v>32.44083480898718</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736679</v>
+        <v>29.96436164736723</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275582</v>
+        <v>25.63968789275619</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846767</v>
+        <v>17.75159088846793</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651405</v>
+        <v>9.532012651651545</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513898</v>
+        <v>3.694473969513953</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477478</v>
+        <v>0.905791740047761</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091202</v>
+        <v>0.01156329880912037</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34714,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
         <v>231.0092291087368</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201023</v>
+        <v>28.16237059201082</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109935</v>
+        <v>164.1725419109944</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548591</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337569</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366733</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.330399653947</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926795</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414936</v>
+        <v>41.0451984341501</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557035</v>
+        <v>23.1436385455707</v>
       </c>
       <c r="K6" t="n">
-        <v>161.6999941067215</v>
+        <v>167.4560060690033</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>263.9100656730287</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464216</v>
+        <v>372.0396308464236</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464216</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033526</v>
+        <v>311.4291731033534</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>232.7745516605761</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111153</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754314</v>
+        <v>2.360334637543502</v>
       </c>
       <c r="L7" t="n">
-        <v>59.1077233810414</v>
+        <v>59.10772338104186</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278382</v>
+        <v>72.8148705227843</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882153</v>
+        <v>76.57300718821577</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140646</v>
+        <v>54.5494895614069</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9182471576493</v>
+        <v>22.91824715764968</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35416,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35662,7 +35664,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N15" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35747,7 +35749,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35963,25 +35965,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36200,28 +36202,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>709.3873594165558</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36440,22 +36442,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,7 +36928,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37148,13 +37150,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>709.3873594165558</v>
+        <v>455.6595083608449</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37169,7 +37171,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003116</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37633,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>365.975979961537</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.8879430616487</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37859,25 +37861,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2673759.89416639</v>
+        <v>2666586.605456107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702196</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>69.82950881474474</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>16.15254088235802</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>125.5971178413755</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>9.22376343510691</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.46550985000071</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464236</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>23.28877961546454</v>
       </c>
       <c r="G5" t="n">
-        <v>152.6839592808844</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385214</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>42.09937462942089</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281872</v>
+        <v>80.69052336281874</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>214.928883819682</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>136.1520687203445</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.54623367868028</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2843490815197</v>
+        <v>219.9544022044773</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>189.5283462851253</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273963</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>77.80783641966748</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.044504686242537</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>132.248113527703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>51.28116933330804</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>3.998128528658369</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.21716692389594</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>139.7568420184986</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>235.6169713356435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.0005969012864</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>283.2741843940248</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>32.71539710434961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>63.80265736225955</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>77.67526418425049</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.5908435446106</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>809.3643835117316</v>
+        <v>809.3643835117314</v>
       </c>
       <c r="C2" t="n">
-        <v>809.3643835117316</v>
+        <v>530.4184100750088</v>
       </c>
       <c r="D2" t="n">
-        <v>809.3643835117316</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>530.4184100750089</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>523.4729093258054</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>508.1578098032605</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
         <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4357,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1034.091197420791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>809.3643835117316</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>809.3643835117316</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>809.3643835117316</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>809.3643835117316</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>809.3643835117316</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.3643835117316</v>
+        <v>1088.310356948454</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.8100373427567</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="C3" t="n">
-        <v>544.8100373427567</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="D3" t="n">
-        <v>395.8756276815054</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="E3" t="n">
-        <v>236.6381726760499</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>31.40945385892269</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>679.042797994484</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121334</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>779.9621455744993</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>544.8100373427567</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W3" t="n">
-        <v>544.8100373427567</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="X3" t="n">
-        <v>544.8100373427567</v>
+        <v>407.3850896439446</v>
       </c>
       <c r="Y3" t="n">
-        <v>544.8100373427567</v>
+        <v>199.6247908789907</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.391191902125</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>185.391191902125</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D4" t="n">
-        <v>185.391191902125</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E4" t="n">
-        <v>185.391191902125</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F4" t="n">
-        <v>185.391191902125</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>185.391191902125</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>185.391191902125</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.391191902125</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.158523385694</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="C5" t="n">
-        <v>1119.196006445283</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="D5" t="n">
-        <v>760.9303078385324</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="E5" t="n">
-        <v>385.1327009229529</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="F5" t="n">
-        <v>378.1872001737495</v>
+        <v>405.560777383293</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J5" t="n">
-        <v>57.6439173538046</v>
+        <v>57.64391735380462</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456891</v>
+        <v>220.174733845689</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039997</v>
+        <v>474.0852112039994</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494189</v>
+        <v>773.2160860494187</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635726</v>
+        <v>1062.555213635725</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293132</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935885</v>
       </c>
       <c r="Q5" t="n">
         <v>1488.158523385694</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385694</v>
+        <v>1366.762647488197</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385694</v>
+        <v>1366.762647488197</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385694</v>
+        <v>1366.762647488197</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385694</v>
+        <v>1112.916339810578</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385694</v>
+        <v>781.8534524670077</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385694</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="X5" t="n">
-        <v>1488.158523385694</v>
+        <v>429.0847971968936</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.158523385694</v>
+        <v>429.0847971968936</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666.4184890280303</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="C6" t="n">
-        <v>666.4184890280303</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782888</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361421</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524406</v>
+        <v>111.4085491144812</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181904</v>
+        <v>479.7277836524403</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181904</v>
+        <v>848.0470181903995</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1156.361899562719</v>
       </c>
       <c r="P6" t="n">
         <v>1386.80870570669</v>
@@ -4673,25 +4673,25 @@
         <v>1488.158523385694</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785563</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="T6" t="n">
-        <v>1319.485484785563</v>
+        <v>1287.001448736742</v>
       </c>
       <c r="U6" t="n">
-        <v>1091.278670439128</v>
+        <v>1058.794634390306</v>
       </c>
       <c r="V6" t="n">
-        <v>1091.278670439128</v>
+        <v>823.6425261585634</v>
       </c>
       <c r="W6" t="n">
-        <v>874.1787877929842</v>
+        <v>569.4051694303619</v>
       </c>
       <c r="X6" t="n">
-        <v>874.1787877929842</v>
+        <v>361.553669224829</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.4184890280303</v>
+        <v>153.7933704598751</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771389</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771389</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771389</v>
+        <v>177.676264050107</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888196</v>
+        <v>32.09990175888189</v>
       </c>
       <c r="L7" t="n">
-        <v>90.6165479061134</v>
+        <v>90.61654790611328</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236698</v>
+        <v>162.7032697236697</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400035</v>
+        <v>238.5105468400032</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057963</v>
+        <v>292.514541505796</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918695</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918695</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918695</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918695</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="T7" t="n">
-        <v>85.87047721385559</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="U7" t="n">
-        <v>85.87047721385559</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="V7" t="n">
-        <v>85.87047721385559</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="W7" t="n">
-        <v>85.87047721385559</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771389</v>
+        <v>315.2036061918691</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771389</v>
+        <v>315.2036061918691</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>999.4901647174274</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C8" t="n">
-        <v>999.4901647174274</v>
+        <v>1180.584573622379</v>
       </c>
       <c r="D8" t="n">
-        <v>999.4901647174274</v>
+        <v>822.3188750156289</v>
       </c>
       <c r="E8" t="n">
-        <v>999.4901647174274</v>
+        <v>436.5306224173847</v>
       </c>
       <c r="F8" t="n">
-        <v>588.5042599278199</v>
+        <v>429.5851216681812</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.090004781549</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,22 +4892,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822451</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.235460983869</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273991</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273991</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.235460983869</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.1822962170271</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>644.1080300429513</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.118479144934</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.3990000507114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.423997082767</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>964.8400440244812</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.0474648809511</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,34 +5743,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3923.023794101857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3871.224633159121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929846</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143404</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4371.805924143404</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4371.805924143404</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4143.816373245387</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>3923.023794101857</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1495.246228534896</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>1183.882643369968</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.882643369968</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>894.4654733330078</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>894.4654733330078</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>894.4654733330078</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,37 +6205,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1459.302970634775</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1459.302970634775</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1235.517555424281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>946.3889166378392</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V28" t="n">
-        <v>946.3889166378392</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W28" t="n">
-        <v>656.9717466008786</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,43 +6457,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>949.9242162922058</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>949.9242162922058</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>949.9242162922058</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108312</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014776</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4757.823667053398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4757.823667053398</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4757.823667053398</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4757.823667053398</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V34" t="n">
-        <v>4503.139178847511</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W34" t="n">
-        <v>4503.139178847511</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>4503.139178847511</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>4503.139178847511</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6940,49 +6940,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3928.626224708976</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3759.690041781069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.149147719352</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.464659513465</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4182.464659513465</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4149.418803852506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3928.626224708976</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7180,22 +7180,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1689.561836756086</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>423.3154508994212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>423.3154508994212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>273.1988114870854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>273.1988114870854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>273.1988114870854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488382</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429513</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>644.1080300429513</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>644.1080300429513</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.3154508994212</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7417,40 +7417,40 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>940.1463453738959</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1309.381304307354</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1309.381304307354</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1054.696816101467</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>765.2796460645059</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>537.2900951664885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2900951664885</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>2013.406634128704</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3886.778400557302</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>3886.778400557302</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>3886.778400557302</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>3738.865306974908</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294729</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4627.970536702775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.18512149228</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4404.18512149228</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4404.18512149228</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4114.767951455319</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3886.778400557302</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>3886.778400557302</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>342.759188933736</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948382</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357537</v>
       </c>
       <c r="L6" t="n">
-        <v>347.5605027480669</v>
+        <v>166.1205165162174</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835743</v>
+        <v>450.1033532835742</v>
       </c>
       <c r="N6" t="n">
-        <v>65.57565010062306</v>
+        <v>437.6152809470466</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503169</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978231</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2351313103787</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>32.78140656352411</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>38.86002301949895</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11314,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>89.43898467896035</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>145.5709683319698</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.46154186133418</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>115.9656517653198</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.239223869919</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>70.74718547989687</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16.52067198818455</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.96375550250643</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.9942582846875</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>102.690911101118</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>143.8722968741388</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731854</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>77.32996643899267</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792857.7792596684</v>
+        <v>792857.7792596683</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803341</v>
@@ -26340,22 +26340,22 @@
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703854</v>
+        <v>106137.1517703852</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252094</v>
+        <v>316711.9424252096</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26392,10 +26392,10 @@
         <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.2460931345</v>
+        <v>24677.24609313448</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817109</v>
+        <v>76496.15793817106</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>50690.35944859719</v>
+        <v>50690.35944859724</v>
       </c>
       <c r="F4" t="n">
-        <v>50690.35944859719</v>
+        <v>50690.35944859722</v>
       </c>
       <c r="G4" t="n">
-        <v>50690.35944859719</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="H4" t="n">
-        <v>50690.3594485972</v>
+        <v>50690.35944859723</v>
       </c>
       <c r="I4" t="n">
         <v>50690.3594485972</v>
       </c>
       <c r="J4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="K4" t="n">
-        <v>50690.35944859723</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="L4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="M4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="N4" t="n">
         <v>50690.3594485972</v>
       </c>
       <c r="O4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.3594485972</v>
       </c>
       <c r="P4" t="n">
         <v>50690.3594485972</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485726</v>
+        <v>58810.42201485725</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154039.070730039</v>
+        <v>154039.0707300392</v>
       </c>
       <c r="C6" t="n">
-        <v>196494.4778270362</v>
+        <v>196494.4778270364</v>
       </c>
       <c r="D6" t="n">
-        <v>56197.88947507605</v>
+        <v>56197.88947507611</v>
       </c>
       <c r="E6" t="n">
-        <v>-42191.22629387552</v>
+        <v>-43165.81755359745</v>
       </c>
       <c r="F6" t="n">
-        <v>482968.8101830204</v>
+        <v>481994.2189232988</v>
       </c>
       <c r="G6" t="n">
-        <v>482968.8101830202</v>
+        <v>481994.2189232988</v>
       </c>
       <c r="H6" t="n">
-        <v>482968.8101830201</v>
+        <v>481994.2189232986</v>
       </c>
       <c r="I6" t="n">
-        <v>482968.8101830203</v>
+        <v>481994.2189232986</v>
       </c>
       <c r="J6" t="n">
-        <v>410714.1153118812</v>
+        <v>409739.5240521595</v>
       </c>
       <c r="K6" t="n">
-        <v>458291.5640898859</v>
+        <v>457316.9728301641</v>
       </c>
       <c r="L6" t="n">
-        <v>406472.6522448494</v>
+        <v>405498.0609851275</v>
       </c>
       <c r="M6" t="n">
-        <v>348167.7949491831</v>
+        <v>347193.2036894617</v>
       </c>
       <c r="N6" t="n">
-        <v>482968.8101830203</v>
+        <v>481994.218923299</v>
       </c>
       <c r="O6" t="n">
-        <v>482968.8101830201</v>
+        <v>481994.2189232988</v>
       </c>
       <c r="P6" t="n">
-        <v>482968.8101830201</v>
+        <v>481994.2189232988</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593903</v>
+        <v>117.5602045593901</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464236</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026498</v>
+        <v>82.53894384026478</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576964</v>
+        <v>260.1834596576966</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406817</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="D4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081321</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406805</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081322</v>
+        <v>302.2476419081321</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406817</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081321</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>135.9823317116531</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>353.578559796111</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>19.47209455200841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>77.5793137875805</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27514,19 +27514,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>160.0434534161087</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>212.2441455390365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225838161</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>383.5872661262469</v>
       </c>
       <c r="G5" t="n">
-        <v>262.1461743968259</v>
+        <v>42.79050283128697</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385213</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409303</v>
@@ -27672,13 +27672,13 @@
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>124.4338090204465</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129663</v>
+        <v>84.45800155129666</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>36.76609934123761</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>12.46340429786784</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.3423548015529</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435846</v>
+        <v>78.37121764358463</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322645</v>
+        <v>68.41045236322648</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>170.1634217103569</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>36.49982093927531</v>
+        <v>193.8297678163177</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>62.60929703870266</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246843</v>
+        <v>0.4726038374246834</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025549</v>
+        <v>4.84005405002554</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231516</v>
+        <v>18.22005944231512</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662333</v>
+        <v>40.11165994662326</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481023</v>
+        <v>60.11698038481011</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439592</v>
+        <v>74.58043007439578</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819715</v>
+        <v>82.98509856819699</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422128004</v>
+        <v>84.32788422127987</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288833</v>
+        <v>79.62842981288819</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646643</v>
+        <v>67.96102257646629</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869491</v>
+        <v>51.03589764869481</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262835</v>
+        <v>29.68720080262829</v>
       </c>
       <c r="S5" t="n">
-        <v>10.769459945315</v>
+        <v>10.76945994531498</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326556</v>
+        <v>2.068823298326552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397474</v>
+        <v>0.03780830699397466</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560471</v>
+        <v>0.2528653456560466</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941297</v>
+        <v>2.442146890941292</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596358</v>
+        <v>8.706109488596342</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182856</v>
+        <v>23.89022987182851</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078371</v>
+        <v>40.83220803078363</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483601</v>
+        <v>54.90394270483591</v>
       </c>
       <c r="M6" t="n">
-        <v>64.0703114848677</v>
+        <v>64.07031148486759</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271024</v>
+        <v>65.76606198271011</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106836</v>
+        <v>60.16309827106824</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349692</v>
+        <v>48.28619043496911</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.2780395612877</v>
+        <v>32.27803956128763</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134651</v>
+        <v>15.69983260134648</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707713</v>
+        <v>4.696862889707704</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359242</v>
+        <v>1.01922479235924</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368731</v>
+        <v>0.01663587800368728</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005399</v>
+        <v>0.2119938115005394</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886619</v>
+        <v>1.884817705886616</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761692</v>
+        <v>6.375232076761679</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308817</v>
+        <v>14.98796247308814</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342635</v>
+        <v>24.6298264634263</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072572</v>
+        <v>31.51769812072566</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094371</v>
+        <v>33.23099356094365</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898718</v>
+        <v>32.44083480898712</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736723</v>
+        <v>29.96436164736717</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275619</v>
+        <v>25.63968789275614</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846793</v>
+        <v>17.7515908884679</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651545</v>
+        <v>9.532012651651526</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513953</v>
+        <v>3.694473969513945</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047761</v>
+        <v>0.9057917400477592</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912037</v>
+        <v>0.01156329880912035</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>231.0092291087368</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201082</v>
+        <v>28.16237059201074</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109944</v>
+        <v>164.1725419109943</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548591</v>
+        <v>256.475229654859</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.1523988337568</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366733</v>
+        <v>292.2617450366731</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653947</v>
+        <v>230.3303996539468</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926795</v>
+        <v>158.5267349926794</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341501</v>
+        <v>41.04519843415</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.1436385455707</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690033</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>263.9100656730287</v>
+        <v>82.47007944117908</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464236</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033534</v>
+        <v>311.4291731033533</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605761</v>
+        <v>232.774551660576</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>102.3735532111152</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543502</v>
+        <v>2.360334637543453</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104186</v>
+        <v>59.1077233810418</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8148705227843</v>
+        <v>72.81487052278423</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821577</v>
+        <v>76.57300718821571</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614069</v>
+        <v>54.54948956140684</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764968</v>
+        <v>22.91824715764963</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35418,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35664,7 +35664,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,7 +36688,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>516.775353191425</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958066</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>455.6595083608449</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37548,7 +37548,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37642,7 +37642,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37879,7 +37879,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
